--- a/Whisky_Location.xlsx
+++ b/Whisky_Location.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\新藤駿介(ShindoShunsuke)\Documents\GitHub\whisky-sommelier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687C51A-CD1D-4664-9DBF-AE19D7050692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFED354-6462-4A3D-BEAD-F23A4A5D88DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20871" yWindow="1123" windowWidth="21600" windowHeight="12643" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{2F899856-5CBC-461A-8012-D844538664D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1846,22 +1846,23 @@
     <t>2015（現蒸溜所）</t>
   </si>
   <si>
+    <t>1810（1963再建）</t>
+  </si>
+  <si>
+    <t>1959（1961操業開始）</t>
+  </si>
+  <si>
+    <t>2016（再稼働）</t>
+  </si>
+  <si>
+    <t>1964（1965操業開始）</t>
+  </si>
+  <si>
+    <t>1919（清酒）、1984（ウイスキー）</t>
+  </si>
+  <si>
     <t>1819（旧）、1967（新）</t>
-  </si>
-  <si>
-    <t>1810（1963再建）</t>
-  </si>
-  <si>
-    <t>1959（1961操業開始）</t>
-  </si>
-  <si>
-    <t>2016（再稼働）</t>
-  </si>
-  <si>
-    <t>1964（1965操業開始）</t>
-  </si>
-  <si>
-    <t>1919（清酒）、1984（ウイスキー）</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1998,8 +1999,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2338,8 +2339,8 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2966,31 +2967,31 @@
       <c r="G13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>1830</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="3">
         <v>57.302</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="3">
         <v>-6.3559999999999999</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3216,31 +3217,31 @@
       <c r="G18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>1824</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>57.484000000000002</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="3">
         <v>-3.2080000000000002</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3879,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>25</v>
@@ -4366,15 +4367,15 @@
       <c r="G41" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="84" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
@@ -4498,31 +4499,31 @@
       <c r="G44" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="3">
         <v>2016</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="3">
         <v>31.396000000000001</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="3">
         <v>130.32300000000001</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4698,31 +4699,31 @@
       <c r="G48" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="3">
         <v>2016</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="3">
         <v>35.381</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="3">
         <v>136.26400000000001</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4860,7 +4861,7 @@
       <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="7">
         <v>1881</v>
       </c>
       <c r="M51" s="6" t="s">
@@ -5311,7 +5312,7 @@
         <v>24</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>25</v>
@@ -6098,31 +6099,31 @@
       <c r="G76" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="3">
         <v>2018</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M76" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N76" s="3">
         <v>34.371000000000002</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="3">
         <v>132.334</v>
       </c>
-      <c r="P76" s="7" t="s">
+      <c r="P76" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6398,31 +6399,31 @@
       <c r="G82" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="3">
         <v>1985</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="M82" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N82" s="3">
         <v>35.899000000000001</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="3">
         <v>137.94200000000001</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="P82" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6448,31 +6449,31 @@
       <c r="G83" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="3">
         <v>1898</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="M83" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N83" s="3">
         <v>57.555999999999997</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O83" s="3">
         <v>-3.1179999999999999</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="P83" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6498,15 +6499,15 @@
       <c r="G84" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="168" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
@@ -6543,7 +6544,7 @@
         <v>24</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>25</v>
@@ -6580,31 +6581,31 @@
       <c r="G86" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="3">
         <v>2018</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="M86" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="3">
         <v>34.371000000000002</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="3">
         <v>132.334</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="P86" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6643,7 +6644,7 @@
         <v>111</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>25</v>
@@ -6730,31 +6731,31 @@
       <c r="G89" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="3">
         <v>2016</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="M89" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="7">
+      <c r="N89" s="3">
         <v>35.381</v>
       </c>
-      <c r="O89" s="7">
+      <c r="O89" s="3">
         <v>136.26400000000001</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="P89" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6793,7 +6794,7 @@
         <v>24</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>25</v>
@@ -7180,31 +7181,31 @@
       <c r="G98" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="3">
         <v>2018</v>
       </c>
-      <c r="M98" s="7" t="s">
+      <c r="M98" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N98" s="7">
+      <c r="N98" s="3">
         <v>39.01</v>
       </c>
-      <c r="O98" s="7">
+      <c r="O98" s="3">
         <v>139.90799999999999</v>
       </c>
-      <c r="P98" s="7" t="s">
+      <c r="P98" s="3" t="s">
         <v>506</v>
       </c>
     </row>
@@ -7243,7 +7244,7 @@
         <v>111</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>25</v>
@@ -7430,31 +7431,31 @@
       <c r="G103" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K103" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="3">
         <v>1985</v>
       </c>
-      <c r="M103" s="7" t="s">
+      <c r="M103" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="N103" s="7">
+      <c r="N103" s="3">
         <v>35.899000000000001</v>
       </c>
-      <c r="O103" s="7">
+      <c r="O103" s="3">
         <v>137.94200000000001</v>
       </c>
-      <c r="P103" s="7" t="s">
+      <c r="P103" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7630,31 +7631,31 @@
       <c r="G107" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K107" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="3">
         <v>2018</v>
       </c>
-      <c r="M107" s="7" t="s">
+      <c r="M107" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N107" s="7">
+      <c r="N107" s="3">
         <v>34.371000000000002</v>
       </c>
-      <c r="O107" s="7">
+      <c r="O107" s="3">
         <v>132.334</v>
       </c>
-      <c r="P107" s="7" t="s">
+      <c r="P107" s="3" t="s">
         <v>410</v>
       </c>
     </row>
